--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t xml:space="preserve">测试数据集</t>
   </si>
@@ -48,6 +48,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">每天</t>
     </r>
@@ -56,6 +57,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bar</t>
     </r>
@@ -64,6 +66,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">根数</t>
     </r>
@@ -74,6 +77,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">执行时间 </t>
     </r>
@@ -82,6 +86,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -90,6 +95,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫秒</t>
     </r>
@@ -98,6 +104,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -109,6 +116,9 @@
     <t xml:space="preserve">select count(*) from sample;</t>
   </si>
   <si>
+    <t xml:space="preserve">select trade_time, open from sample where code in (1, 10, 200, 1000);</t>
+  </si>
+  <si>
     <t xml:space="preserve">select code, max(open) from sample group by code;</t>
   </si>
   <si>
@@ -126,6 +136,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -134,14 +145,16 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">测试机器有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">测试设备：Ubuntu 16.06，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -150,6 +163,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">个物理</t>
     </r>
@@ -158,6 +172,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">cpu</t>
     </r>
@@ -166,6 +181,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -174,6 +190,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">48g</t>
     </r>
@@ -182,6 +199,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">内存，</t>
     </r>
@@ -190,6 +208,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.2t</t>
     </r>
@@ -198,6 +217,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">固态硬盘；</t>
     </r>
@@ -208,6 +228,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2. postgres</t>
     </r>
@@ -216,6 +237,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表，使用</t>
     </r>
@@ -224,6 +246,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">trade_time</t>
     </r>
@@ -232,6 +255,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -240,6 +264,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">code</t>
     </r>
@@ -248,6 +273,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">做索引，并且聚集；</t>
     </r>
@@ -258,6 +284,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3. kdb</t>
     </r>
@@ -266,6 +293,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的测试数据集完全驻留在内存中；</t>
     </r>
@@ -276,6 +304,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4. postgres</t>
     </r>
@@ -284,8 +313,29 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">脚本执行只使用第一次执行的结果，确保无缓存影响；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">只计算在查询界面返回的时间。</t>
     </r>
   </si>
 </sst>
@@ -301,6 +351,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,6 +372,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,18 +443,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="169.647959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="166.040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>83576</v>
+        <v>46746</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -516,14 +566,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>59110</v>
+        <v>278</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1035</v>
+        <v>1061</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">B11/C11</f>
-        <v>57.1111111111111</v>
+        <v>0.262016965127238</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,14 +581,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1668</v>
+        <v>62746</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>27</v>
+        <v>1035</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">B12/C12</f>
-        <v>61.7777777777778</v>
+        <v>60.624154589372</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,27 +596,37 @@
         <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>128580</v>
+        <v>1540</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3148</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">B13/C13</f>
-        <v>40.8449809402795</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+        <v>57.037037037037</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="0" t="n">
+        <v>96357</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>3148</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">B14/C14</f>
+        <v>30.608958068615</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>16</v>
       </c>
@@ -579,6 +639,16 @@
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
